--- a/selenium-kdf/src/test/resources/testData.xlsx
+++ b/selenium-kdf/src/test/resources/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,16 +30,15 @@
     <sheet name="addCustomers" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="deleteCustomers" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="addAttendanceRecord" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="approveTimesheet" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="rejectTimesheet" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="resetTimesheet" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="openEmployeeListWindow" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="openVacanciesWindow" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="openProjectReportsWindow" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="openCustomersWindow" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="openAddCustomerWindow" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="openAttendanceRecordWindow" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="openTimesheetWindow" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="openEmployeeListWindow" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="openVacanciesWindow" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="openProjectReportsWindow" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="openCustomersWindow" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="openAddCustomerWindow" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="openAttendanceRecordWindow" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="openTimesheetWindow" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="logout" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Sheet34" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="173">
   <si>
     <t xml:space="preserve">Run</t>
   </si>
@@ -65,7 +64,7 @@
     <t xml:space="preserve">Scenario_Description</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">checkLoginWrong</t>
@@ -74,9 +73,6 @@
     <t xml:space="preserve">User should be able to log-in to its account, when the username and password are correct</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">checkLoginCorrect</t>
   </si>
   <si>
@@ -161,15 +157,6 @@
     <t xml:space="preserve">openTimesheetWindow</t>
   </si>
   <si>
-    <t xml:space="preserve">approveTimesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rejectTimesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resetTimesheet</t>
-  </si>
-  <si>
     <t xml:space="preserve">logout</t>
   </si>
   <si>
@@ -573,6 +560,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://opensource-demo.orangehrmlive.com/index.php/time/viewEmployeeTimesheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profileLogout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opensource-demo.orangehrmlive.com/index.php/auth/login</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1013,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,13 +1055,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,10 +1069,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,10 +1124,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,10 +1135,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,10 +1168,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,10 +1179,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,10 +1190,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,10 +1212,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,10 +1223,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,10 +1234,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,10 +1256,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1294,10 +1290,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1317,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,10 +1324,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,10 +1335,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,10 +1346,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,87 +1379,54 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>8</v>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1495,19 +1458,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,16 +1478,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,13 +1509,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -1563,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,13 +1540,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>3</v>
@@ -1594,13 +1557,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,16 +1571,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1649,19 +1612,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,13 +1632,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -1686,13 +1649,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,13 +1677,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1731,13 +1694,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1769,19 +1732,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="0" t="n">
@@ -1801,16 +1764,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,13 +1781,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1849,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,13 +1823,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -1877,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1912,19 +1875,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -1949,13 +1912,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,13 +1926,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,19 +1981,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>2</v>
@@ -2055,13 +2018,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,13 +2032,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,13 +2046,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2121,19 +2084,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2158,13 +2121,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,13 +2135,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,13 +2149,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2224,19 +2187,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,16 +2207,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,13 +2224,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,16 +2238,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2316,19 +2279,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,16 +2299,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,13 +2316,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,13 +2330,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -2384,10 +2347,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2419,19 +2382,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
@@ -2456,13 +2419,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,13 +2433,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,13 +2447,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -2523,19 +2486,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -2560,13 +2523,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,13 +2537,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,13 +2551,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
@@ -2605,13 +2568,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2643,19 +2606,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2626,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,16 +2637,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,16 +2654,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,13 +2671,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2746,19 +2709,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,16 +2729,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +2746,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,16 +2760,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2838,19 +2801,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,13 +2821,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>8</v>
@@ -2875,13 +2838,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,13 +2852,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>3</v>
@@ -2906,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2933,8 +2896,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S20" activeCellId="0" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2944,55 +2907,55 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E4" s="10" t="n">
         <v>44336</v>
@@ -3000,24 +2963,24 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>3</v>
@@ -3025,38 +2988,38 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3071,138 +3034,6 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3220,19 +3051,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,13 +3085,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,10 +3107,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -3307,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3325,19 +3156,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,13 +3190,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3212,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,7 +3223,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -3401,6 +3232,394 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/recruitment/viewJobVacancy"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/time/displayProjectReportCriteria?reportId=1"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/admin/viewCustomers"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/admin/addCustomer"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3420,7 +3639,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3430,19 +3649,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,13 +3669,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,54 +3683,54 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>160</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -3519,7 +3738,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/time/displayProjectReportCriteria?reportId=1"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/attendance/viewAttendanceRecord"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3539,7 +3758,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3549,19 +3768,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,54 +3802,54 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>163</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -3638,7 +3857,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/admin/viewCustomers"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/time/viewEmployeeTimesheet"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3668,19 +3887,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,16 +3918,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,16 +3935,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,13 +3952,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3974,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -3781,10 +4000,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3794,19 +4013,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,13 +4033,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>159</v>
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,13 +4047,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>163</v>
+        <v>73</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,13 +4064,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,16 +4078,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,48 +4086,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/admin/addCustomer"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/auth/login"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3931,229 +4111,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/attendance/viewAttendanceRecord"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/index.php/time/viewEmployeeTimesheet"/>
-  </hyperlinks>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4182,19 +4150,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,13 +4170,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,13 +4184,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4254,19 +4222,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,16 +4242,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,16 +4259,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,16 +4276,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,13 +4293,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,16 +4307,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,16 +4324,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,16 +4341,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,13 +4358,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,13 +4372,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
@@ -4421,13 +4389,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,10 +4403,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4470,19 +4438,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -4501,13 +4469,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -4518,13 +4486,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,13 +4500,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
@@ -4549,13 +4517,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4587,19 +4555,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -4618,13 +4586,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,13 +4600,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4614,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,15 +4622,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -4700,19 +4668,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,13 +4688,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,13 +4702,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,13 +4716,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4762,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,10 +4738,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4808,19 +4776,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,16 +4796,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,16 +4813,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,16 +4830,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,16 +4847,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,13 +4864,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>83248856</v>
@@ -4913,16 +4881,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,13 +4898,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,13 +4912,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
@@ -4961,13 +4929,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,10 +4943,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
